--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020521.xlsx_with_dialog_acts.xlsx
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4165,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4511,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5853,12 +5853,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6005,12 +6005,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6157,12 +6157,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6803,12 +6803,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7415,12 +7415,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7947,12 +7947,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8099,12 +8099,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8137,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8365,12 +8365,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8859,12 +8859,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8973,12 +8973,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9429,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9885,12 +9885,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10873,12 +10873,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11025,12 +11025,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11063,12 +11063,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11633,12 +11633,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12055,12 +12055,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12131,12 +12131,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13845,12 +13845,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14073,12 +14073,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14993,12 +14993,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15107,12 +15107,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15449,12 +15449,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15753,12 +15753,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16057,12 +16057,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16399,12 +16399,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16745,12 +16745,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16897,12 +16897,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17091,12 +17091,12 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17205,12 +17205,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18041,12 +18041,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18843,12 +18843,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19223,12 +19223,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19299,12 +19299,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19451,12 +19451,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19603,12 +19603,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19641,12 +19641,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19717,12 +19717,12 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20249,12 +20249,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20477,12 +20477,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21085,12 +21085,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
